--- a/bugTrackerExtraordinaire.xlsx
+++ b/bugTrackerExtraordinaire.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Page</t>
   </si>
@@ -134,13 +134,25 @@
   </si>
   <si>
     <t>Date Requested</t>
+  </si>
+  <si>
+    <t>Priority Level</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Suggestion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,6 +176,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,9 +202,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -203,11 +224,29 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -231,11 +270,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RequestEmail" displayName="RequestEmail" ref="C1:D5" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RequestEmail" displayName="RequestEmail" ref="C1:D5" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="C1:D5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Requested By"/>
     <tableColumn id="2" name="Email"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F1:F4" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="F1:F4"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Priority Level"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -566,7 +615,7 @@
   <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2133,7 +2182,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Hold up!" error="You must select a page value. For changes not specific to any page, please select &quot;other&quot;">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$22</xm:f>
@@ -2146,6 +2195,12 @@
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$F$2:$F$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2157,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2169,9 +2224,10 @@
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2181,8 +2237,11 @@
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2192,8 +2251,11 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2203,8 +2265,11 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2214,8 +2279,11 @@
       <c r="D4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2226,57 +2294,57 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2317,8 +2385,9 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
